--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H2">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I2">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J2">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.34214933333333</v>
+        <v>13.876835</v>
       </c>
       <c r="N2">
-        <v>34.026448</v>
+        <v>41.630505</v>
       </c>
       <c r="O2">
-        <v>0.6855690166052357</v>
+        <v>0.7463002519696361</v>
       </c>
       <c r="P2">
-        <v>0.6855690166052358</v>
+        <v>0.746300251969636</v>
       </c>
       <c r="Q2">
-        <v>44.03137304979911</v>
+        <v>3.968423263513333</v>
       </c>
       <c r="R2">
-        <v>396.282357448192</v>
+        <v>35.71580937162</v>
       </c>
       <c r="S2">
-        <v>0.003213928439838869</v>
+        <v>0.0009563862521833314</v>
       </c>
       <c r="T2">
-        <v>0.00321392843983887</v>
+        <v>0.0009563862521833314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H3">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I3">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J3">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.637041</v>
       </c>
       <c r="O3">
-        <v>0.1740201535214343</v>
+        <v>0.1548341984939188</v>
       </c>
       <c r="P3">
-        <v>0.1740201535214344</v>
+        <v>0.1548341984939187</v>
       </c>
       <c r="Q3">
-        <v>11.17662279405156</v>
+        <v>0.8233249736537778</v>
       </c>
       <c r="R3">
-        <v>100.589605146464</v>
+        <v>7.409924762884</v>
       </c>
       <c r="S3">
-        <v>0.0008158016289550512</v>
+        <v>0.0001984205397446842</v>
       </c>
       <c r="T3">
-        <v>0.0008158016289550515</v>
+        <v>0.0001984205397446842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H4">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I4">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J4">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9824923333333334</v>
+        <v>0.9556750000000002</v>
       </c>
       <c r="N4">
-        <v>2.947477</v>
+        <v>2.867025</v>
       </c>
       <c r="O4">
-        <v>0.05938612541504627</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="P4">
-        <v>0.05938612541504628</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="Q4">
-        <v>3.814134797223112</v>
+        <v>0.2732988395666667</v>
       </c>
       <c r="R4">
-        <v>34.327213175008</v>
+        <v>2.4596895561</v>
       </c>
       <c r="S4">
-        <v>0.0002784005005774023</v>
+        <v>6.586476178143686E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002784005005774024</v>
+        <v>6.586476178143687E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H5">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I5">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J5">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.068795</v>
+        <v>0.6957166666666668</v>
       </c>
       <c r="N5">
-        <v>3.206385</v>
+        <v>2.08715</v>
       </c>
       <c r="O5">
-        <v>0.06460263531790854</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="P5">
-        <v>0.06460263531790855</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="Q5">
-        <v>4.14917049456</v>
+        <v>0.1989573418444445</v>
       </c>
       <c r="R5">
-        <v>37.34253445104</v>
+        <v>1.7906160766</v>
       </c>
       <c r="S5">
-        <v>0.0003028553535935561</v>
+        <v>4.794853116109066E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003028553535935562</v>
+        <v>4.794853116109066E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2859746666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.857924</v>
+      </c>
+      <c r="I6">
+        <v>0.001281503322100235</v>
+      </c>
+      <c r="J6">
+        <v>0.001281503322100236</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>3.882101333333333</v>
-      </c>
-      <c r="H6">
-        <v>11.646304</v>
-      </c>
-      <c r="I6">
-        <v>0.004687972125335286</v>
-      </c>
-      <c r="J6">
-        <v>0.004687972125335287</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.271689</v>
+        <v>0.1869313333333333</v>
       </c>
       <c r="N6">
-        <v>0.815067</v>
+        <v>0.560794</v>
       </c>
       <c r="O6">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="P6">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="Q6">
-        <v>1.054724229152</v>
+        <v>0.05345762573955556</v>
       </c>
       <c r="R6">
-        <v>9.492518062368001</v>
+        <v>0.4811186316560001</v>
       </c>
       <c r="S6">
-        <v>7.698620237040748E-05</v>
+        <v>1.288323722969249E-05</v>
       </c>
       <c r="T6">
-        <v>7.698620237040751E-05</v>
+        <v>1.288323722969249E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H7">
         <v>2.411965</v>
       </c>
       <c r="I7">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J7">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.34214933333333</v>
+        <v>13.876835</v>
       </c>
       <c r="N7">
-        <v>34.026448</v>
+        <v>41.630505</v>
       </c>
       <c r="O7">
-        <v>0.6855690166052357</v>
+        <v>0.7463002519696361</v>
       </c>
       <c r="P7">
-        <v>0.6855690166052358</v>
+        <v>0.746300251969636</v>
       </c>
       <c r="Q7">
-        <v>9.118955738924445</v>
+        <v>11.15681344359167</v>
       </c>
       <c r="R7">
-        <v>82.07060165032001</v>
+        <v>100.411320992325</v>
       </c>
       <c r="S7">
-        <v>0.0006656088411736426</v>
+        <v>0.002688781485011923</v>
       </c>
       <c r="T7">
-        <v>0.0006656088411736427</v>
+        <v>0.002688781485011923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H8">
         <v>2.411965</v>
       </c>
       <c r="I8">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J8">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.637041</v>
       </c>
       <c r="O8">
-        <v>0.1740201535214343</v>
+        <v>0.1548341984939188</v>
       </c>
       <c r="P8">
-        <v>0.1740201535214344</v>
+        <v>0.1548341984939187</v>
       </c>
       <c r="Q8">
-        <v>2.314693399507223</v>
+        <v>2.314693399507222</v>
       </c>
       <c r="R8">
         <v>20.832240595565</v>
       </c>
       <c r="S8">
-        <v>0.0001689535990115465</v>
+        <v>0.0005578389194675603</v>
       </c>
       <c r="T8">
-        <v>0.0001689535990115466</v>
+        <v>0.0005578389194675602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H9">
         <v>2.411965</v>
       </c>
       <c r="I9">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J9">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9824923333333334</v>
+        <v>0.9556750000000002</v>
       </c>
       <c r="N9">
-        <v>2.947477</v>
+        <v>2.867025</v>
       </c>
       <c r="O9">
-        <v>0.05938612541504627</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="P9">
-        <v>0.05938612541504628</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="Q9">
-        <v>0.7899123735894445</v>
+        <v>0.7683515504583335</v>
       </c>
       <c r="R9">
-        <v>7.109211362305001</v>
+        <v>6.915163954125001</v>
       </c>
       <c r="S9">
-        <v>5.765711279519874E-05</v>
+        <v>0.0001851719967621414</v>
       </c>
       <c r="T9">
-        <v>5.765711279519875E-05</v>
+        <v>0.0001851719967621414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H10">
         <v>2.411965</v>
       </c>
       <c r="I10">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J10">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.068795</v>
+        <v>0.6957166666666668</v>
       </c>
       <c r="N10">
-        <v>3.206385</v>
+        <v>2.08715</v>
       </c>
       <c r="O10">
-        <v>0.06460263531790854</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="P10">
-        <v>0.06460263531790855</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="Q10">
-        <v>0.8592987107250001</v>
+        <v>0.5593480833055556</v>
       </c>
       <c r="R10">
-        <v>7.733688396525001</v>
+        <v>5.03413274975</v>
       </c>
       <c r="S10">
-        <v>6.272174527904145E-05</v>
+        <v>0.0001348023589058705</v>
       </c>
       <c r="T10">
-        <v>6.272174527904148E-05</v>
+        <v>0.0001348023589058705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H11">
         <v>2.411965</v>
       </c>
       <c r="I11">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J11">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.271689</v>
+        <v>0.1869313333333333</v>
       </c>
       <c r="N11">
-        <v>0.815067</v>
+        <v>0.560794</v>
       </c>
       <c r="O11">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="P11">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="Q11">
-        <v>0.218434786295</v>
+        <v>0.1502906111344444</v>
       </c>
       <c r="R11">
-        <v>1.965913076655</v>
+        <v>1.35261550021</v>
       </c>
       <c r="S11">
-        <v>1.594394458536716E-05</v>
+        <v>3.621989510109898E-05</v>
       </c>
       <c r="T11">
-        <v>1.594394458536717E-05</v>
+        <v>3.621989510109898E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H12">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I12">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J12">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.34214933333333</v>
+        <v>13.876835</v>
       </c>
       <c r="N12">
-        <v>34.026448</v>
+        <v>41.630505</v>
       </c>
       <c r="O12">
-        <v>0.6855690166052357</v>
+        <v>0.7463002519696361</v>
       </c>
       <c r="P12">
-        <v>0.6855690166052358</v>
+        <v>0.746300251969636</v>
       </c>
       <c r="Q12">
-        <v>6451.30941041783</v>
+        <v>761.357145507385</v>
       </c>
       <c r="R12">
-        <v>58061.78469376047</v>
+        <v>6852.214309566464</v>
       </c>
       <c r="S12">
-        <v>0.4708925784551837</v>
+        <v>0.1834863517860135</v>
       </c>
       <c r="T12">
-        <v>0.4708925784551838</v>
+        <v>0.1834863517860135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H13">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I13">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J13">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.637041</v>
       </c>
       <c r="O13">
-        <v>0.1740201535214343</v>
+        <v>0.1548341984939188</v>
       </c>
       <c r="P13">
-        <v>0.1740201535214344</v>
+        <v>0.1548341984939187</v>
       </c>
       <c r="Q13">
-        <v>1637.556288022324</v>
+        <v>157.9580377751903</v>
       </c>
       <c r="R13">
-        <v>14738.00659220091</v>
+        <v>1421.622339976713</v>
       </c>
       <c r="S13">
-        <v>0.1195281537089366</v>
+        <v>0.03806773766775642</v>
       </c>
       <c r="T13">
-        <v>0.1195281537089366</v>
+        <v>0.03806773766775641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H14">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I14">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J14">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9824923333333334</v>
+        <v>0.9556750000000002</v>
       </c>
       <c r="N14">
-        <v>2.947477</v>
+        <v>2.867025</v>
       </c>
       <c r="O14">
-        <v>0.05938612541504627</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="P14">
-        <v>0.05938612541504628</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="Q14">
-        <v>558.8325324785625</v>
+        <v>52.43342520342501</v>
       </c>
       <c r="R14">
-        <v>5029.492792307062</v>
+        <v>471.9008268308251</v>
       </c>
       <c r="S14">
-        <v>0.04079018310895541</v>
+        <v>0.01263640586942905</v>
       </c>
       <c r="T14">
-        <v>0.04079018310895541</v>
+        <v>0.01263640586942905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H15">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I15">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J15">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.068795</v>
+        <v>0.6957166666666668</v>
       </c>
       <c r="N15">
-        <v>3.206385</v>
+        <v>2.08715</v>
       </c>
       <c r="O15">
-        <v>0.06460263531790854</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="P15">
-        <v>0.06460263531790855</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="Q15">
-        <v>607.920689339145</v>
+        <v>38.17072519888334</v>
       </c>
       <c r="R15">
-        <v>5471.286204052306</v>
+        <v>343.53652678995</v>
       </c>
       <c r="S15">
-        <v>0.0443732152168814</v>
+        <v>0.009199108661549462</v>
       </c>
       <c r="T15">
-        <v>0.04437321521688142</v>
+        <v>0.00919910866154946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H16">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I16">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J16">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.271689</v>
+        <v>0.1869313333333333</v>
       </c>
       <c r="N16">
-        <v>0.815067</v>
+        <v>0.560794</v>
       </c>
       <c r="O16">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="P16">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="Q16">
-        <v>154.534184914659</v>
+        <v>10.25604947760467</v>
       </c>
       <c r="R16">
-        <v>1390.807664231931</v>
+        <v>92.304445298442</v>
       </c>
       <c r="S16">
-        <v>0.01127972573698351</v>
+        <v>0.002471698221376024</v>
       </c>
       <c r="T16">
-        <v>0.01127972573698352</v>
+        <v>0.002471698221376024</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H17">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I17">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J17">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.34214933333333</v>
+        <v>13.876835</v>
       </c>
       <c r="N17">
-        <v>34.026448</v>
+        <v>41.630505</v>
       </c>
       <c r="O17">
-        <v>0.6855690166052357</v>
+        <v>0.7463002519696361</v>
       </c>
       <c r="P17">
-        <v>0.6855690166052358</v>
+        <v>0.746300251969636</v>
       </c>
       <c r="Q17">
-        <v>4.007230508780443</v>
+        <v>0.6899608618116666</v>
       </c>
       <c r="R17">
-        <v>36.065074579024</v>
+        <v>6.209647756304999</v>
       </c>
       <c r="S17">
-        <v>0.000292494900910618</v>
+        <v>0.0001662799149597376</v>
       </c>
       <c r="T17">
-        <v>0.0002924949009106181</v>
+        <v>0.0001662799149597376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H18">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I18">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J18">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.637041</v>
       </c>
       <c r="O18">
-        <v>0.1740201535214343</v>
+        <v>0.1548341984939188</v>
       </c>
       <c r="P18">
-        <v>0.1740201535214344</v>
+        <v>0.1548341984939187</v>
       </c>
       <c r="Q18">
-        <v>1.017168004159222</v>
+        <v>0.1431455191778889</v>
       </c>
       <c r="R18">
-        <v>9.154512037432999</v>
+        <v>1.288309672601</v>
       </c>
       <c r="S18">
-        <v>7.424490653435072E-05</v>
+        <v>3.449793469917713E-05</v>
       </c>
       <c r="T18">
-        <v>7.424490653435075E-05</v>
+        <v>3.449793469917712E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H19">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I19">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J19">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9824923333333334</v>
+        <v>0.9556750000000002</v>
       </c>
       <c r="N19">
-        <v>2.947477</v>
+        <v>2.867025</v>
       </c>
       <c r="O19">
-        <v>0.05938612541504627</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="P19">
-        <v>0.05938612541504628</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="Q19">
-        <v>0.3471187988334444</v>
+        <v>0.04751647955833334</v>
       </c>
       <c r="R19">
-        <v>3.124069189501</v>
+        <v>0.427648316025</v>
       </c>
       <c r="S19">
-        <v>2.533682014212373E-05</v>
+        <v>1.145142662063412E-05</v>
       </c>
       <c r="T19">
-        <v>2.533682014212374E-05</v>
+        <v>1.145142662063412E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H20">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I20">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J20">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.068795</v>
+        <v>0.6957166666666668</v>
       </c>
       <c r="N20">
-        <v>3.206385</v>
+        <v>2.08715</v>
       </c>
       <c r="O20">
-        <v>0.06460263531790854</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="P20">
-        <v>0.06460263531790855</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="Q20">
-        <v>0.3776099049449999</v>
+        <v>0.03459126457222222</v>
       </c>
       <c r="R20">
-        <v>3.398489144505</v>
+        <v>0.31132138115</v>
       </c>
       <c r="S20">
-        <v>2.756242035184783E-05</v>
+        <v>8.336462036869752E-06</v>
       </c>
       <c r="T20">
-        <v>2.756242035184784E-05</v>
+        <v>8.33646203686975E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H21">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I21">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J21">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.271689</v>
+        <v>0.1869313333333333</v>
       </c>
       <c r="N21">
-        <v>0.815067</v>
+        <v>0.560794</v>
       </c>
       <c r="O21">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="P21">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="Q21">
-        <v>0.09598890101899998</v>
+        <v>0.009294288203777777</v>
       </c>
       <c r="R21">
-        <v>0.8639001091709999</v>
+        <v>0.083648593834</v>
       </c>
       <c r="S21">
-        <v>7.006401061918502E-06</v>
+        <v>2.239914664257162E-06</v>
       </c>
       <c r="T21">
-        <v>7.006401061918505E-06</v>
+        <v>2.239914664257162E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H22">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I22">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J22">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.34214933333333</v>
+        <v>13.876835</v>
       </c>
       <c r="N22">
-        <v>34.026448</v>
+        <v>41.630505</v>
       </c>
       <c r="O22">
-        <v>0.6855690166052357</v>
+        <v>0.7463002519696361</v>
       </c>
       <c r="P22">
-        <v>0.6855690166052358</v>
+        <v>0.746300251969636</v>
       </c>
       <c r="Q22">
-        <v>2883.946609674276</v>
+        <v>2319.521356483952</v>
       </c>
       <c r="R22">
-        <v>25955.51948706849</v>
+        <v>20875.69220835557</v>
       </c>
       <c r="S22">
-        <v>0.2105044059681289</v>
+        <v>0.5590024525314676</v>
       </c>
       <c r="T22">
-        <v>0.2105044059681289</v>
+        <v>0.5590024525314675</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H23">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I23">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J23">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.637041</v>
       </c>
       <c r="O23">
-        <v>0.1740201535214343</v>
+        <v>0.1548341984939188</v>
       </c>
       <c r="P23">
-        <v>0.1740201535214344</v>
+        <v>0.1548341984939187</v>
       </c>
       <c r="Q23">
-        <v>732.0412965105179</v>
+        <v>481.2288742672593</v>
       </c>
       <c r="R23">
-        <v>6588.371668594661</v>
+        <v>4331.059868405333</v>
       </c>
       <c r="S23">
-        <v>0.05343299967799677</v>
+        <v>0.1159757034322509</v>
       </c>
       <c r="T23">
-        <v>0.05343299967799678</v>
+        <v>0.1159757034322509</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H24">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I24">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J24">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9824923333333334</v>
+        <v>0.9556750000000002</v>
       </c>
       <c r="N24">
-        <v>2.947477</v>
+        <v>2.867025</v>
       </c>
       <c r="O24">
-        <v>0.05938612541504627</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="P24">
-        <v>0.05938612541504628</v>
+        <v>0.05139648149603869</v>
       </c>
       <c r="Q24">
-        <v>249.8164457613356</v>
+        <v>159.7416537962584</v>
       </c>
       <c r="R24">
-        <v>2248.348011852021</v>
+        <v>1437.674884166325</v>
       </c>
       <c r="S24">
-        <v>0.01823454787257614</v>
+        <v>0.03849758744144543</v>
       </c>
       <c r="T24">
-        <v>0.01823454787257614</v>
+        <v>0.03849758744144543</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H25">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I25">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J25">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.068795</v>
+        <v>0.6957166666666668</v>
       </c>
       <c r="N25">
-        <v>3.206385</v>
+        <v>2.08715</v>
       </c>
       <c r="O25">
-        <v>0.06460263531790854</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="P25">
-        <v>0.06460263531790855</v>
+        <v>0.03741584616613289</v>
       </c>
       <c r="Q25">
-        <v>271.7604596889</v>
+        <v>116.2894612781056</v>
       </c>
       <c r="R25">
-        <v>2445.8441372001</v>
+        <v>1046.60515150295</v>
       </c>
       <c r="S25">
-        <v>0.01983628058180268</v>
+        <v>0.0280256501524796</v>
       </c>
       <c r="T25">
-        <v>0.01983628058180269</v>
+        <v>0.0280256501524796</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H26">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I26">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J26">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.271689</v>
+        <v>0.1869313333333333</v>
       </c>
       <c r="N26">
-        <v>0.815067</v>
+        <v>0.560794</v>
       </c>
       <c r="O26">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="P26">
-        <v>0.01642206914037515</v>
+        <v>0.01005322187427369</v>
       </c>
       <c r="Q26">
-        <v>69.08184219838002</v>
+        <v>31.24568533550245</v>
       </c>
       <c r="R26">
-        <v>621.7365797854201</v>
+        <v>281.211168019522</v>
       </c>
       <c r="S26">
-        <v>0.00504240685537394</v>
+        <v>0.007530180605902616</v>
       </c>
       <c r="T26">
-        <v>0.005042406855373941</v>
+        <v>0.007530180605902615</v>
       </c>
     </row>
   </sheetData>
